--- a/ROM_test/Naca0012_transonic_Test_HROM/case_data.xlsx
+++ b/ROM_test/Naca0012_transonic_Test_HROM/case_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,34 +485,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.423697748722982</v>
+        <v>1.311556812882253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7399671533574472</v>
+        <v>0.7437173676422224</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>1.44596716943277</v>
+        <v>1.858407759892296e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05337616426453195</v>
+        <v>2.454346838956547e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>0.35</v>
       </c>
       <c r="I2" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3246603521617291</v>
+        <v>0.2867737769414407</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002294537476053242</v>
+        <v>0.002896901851832822</v>
       </c>
     </row>
     <row r="3">
@@ -522,34 +522,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.173697748722982</v>
+        <v>1.061556812882253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7066338200241139</v>
+        <v>0.7103840343088891</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>6.085379974122878e-09</v>
+        <v>1.282703584654491e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>2.503647009637386e-10</v>
+        <v>4.456770143432781e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9</v>
+        <v>0.36</v>
       </c>
       <c r="I3" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2172627565570988</v>
+        <v>0.1986722505405454</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003308484977677722</v>
+        <v>0.0003549198713822892</v>
       </c>
     </row>
     <row r="4">
@@ -559,34 +559,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.298697748722982</v>
+        <v>1.436556812882253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7233004866907806</v>
+        <v>0.7270507009755557</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>2.133640278314153e-11</v>
+        <v>9.79245365348961e-12</v>
       </c>
       <c r="F4" t="n">
-        <v>2.01414463496928e-12</v>
+        <v>3.42361492953575e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.97</v>
+        <v>0.39</v>
       </c>
       <c r="I4" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2550624091981927</v>
+        <v>0.2887644227255705</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008750704513306035</v>
+        <v>0.001580825492354993</v>
       </c>
     </row>
     <row r="5">
@@ -596,34 +596,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.048697748722982</v>
+        <v>1.186556812882253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7455227089130029</v>
+        <v>0.7381618120866669</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2446809164255175</v>
+        <v>8.556153515497676e-12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005328575932493738</v>
+        <v>4.004296499289242e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>1.28</v>
+        <v>0.35</v>
       </c>
       <c r="I5" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2281701012194234</v>
+        <v>0.2489546343724152</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001610908074822777</v>
+        <v>0.001671531321049763</v>
       </c>
     </row>
     <row r="6">
@@ -633,34 +633,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.486197748722982</v>
+        <v>1.374056812882253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7121893755796694</v>
+        <v>0.7048284787533334</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>2.605871141063035e-08</v>
+        <v>1.35294403376898e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>5.738739083497119e-10</v>
+        <v>3.217604619683736e-13</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>1.16</v>
+        <v>0.34</v>
       </c>
       <c r="I6" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2817387264062402</v>
+        <v>0.2539837934930387</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0007395936879920724</v>
+        <v>0.0004984693830160569</v>
       </c>
     </row>
     <row r="7">
@@ -670,34 +670,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.236197748722982</v>
+        <v>1.124056812882253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7288560422463362</v>
+        <v>0.7214951454200002</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>4.281285728574274e-09</v>
+        <v>8.63751749304666e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>4.764158407527383e-10</v>
+        <v>1.448744471448637e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>0.97</v>
+        <v>0.34</v>
       </c>
       <c r="I7" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2478807123699769</v>
+        <v>0.2185549523378347</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001027395509591398</v>
+        <v>0.0006378377353161539</v>
       </c>
     </row>
     <row r="8">
@@ -707,34 +707,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.361197748722982</v>
+        <v>1.499056812882253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7344115978018917</v>
+        <v>0.7492729231977779</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>6.760940327043273e-10</v>
+        <v>2.770248947949118e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>2.913606437882582e-11</v>
+        <v>1.487720169379193e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>1.23</v>
+        <v>0.37</v>
       </c>
       <c r="I8" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2818136094881227</v>
+        <v>0.3478734892518188</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001811099553929031</v>
+        <v>0.005497165775732888</v>
       </c>
     </row>
     <row r="9">
@@ -744,34 +744,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.111197748722982</v>
+        <v>1.249056812882253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7010782644685584</v>
+        <v>0.7159395898644446</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>6.877784767326882e-11</v>
+        <v>1.963634992081528e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>1.738558181930776e-12</v>
+        <v>5.405318365686499e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>0.36</v>
       </c>
       <c r="I9" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2023403172163614</v>
+        <v>0.2387323420675486</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002519693641863663</v>
+        <v>0.0006300842780919656</v>
       </c>
     </row>
     <row r="10">
@@ -781,34 +781,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.392447748722982</v>
+        <v>1.280306812882253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7177449311352251</v>
+        <v>0.7326062565311112</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>6.805767302438706e-08</v>
+        <v>2.766570307343177e-12</v>
       </c>
       <c r="F10" t="n">
-        <v>3.105393688994355e-09</v>
+        <v>1.283076636431471e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="I10" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2685295665507793</v>
+        <v>0.2623024864329441</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0008025551546065202</v>
+        <v>0.001519719568182173</v>
       </c>
     </row>
     <row r="11">
@@ -818,34 +818,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.142447748722982</v>
+        <v>1.030306812882253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7418190052092991</v>
+        <v>0.7400136639385186</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>6.227837799675618e-09</v>
+        <v>1.783752510705789e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>3.519874810767431e-10</v>
+        <v>2.777125160717329e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28</v>
+        <v>0.35</v>
       </c>
       <c r="I11" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2430005812658119</v>
+        <v>0.2166337408854802</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001692091625514832</v>
+        <v>0.001328397514324105</v>
       </c>
     </row>
     <row r="12">
@@ -855,34 +855,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.267447748722982</v>
+        <v>1.405306812882253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7084856718759658</v>
+        <v>0.7066803306051853</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>1.299570091056063e-11</v>
+        <v>9.759082729553745e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>2.536673652876362e-13</v>
+        <v>6.343092142797946e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>1.18</v>
+        <v>0.34</v>
       </c>
       <c r="I12" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2362711855851095</v>
+        <v>0.2613677819493451</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0004144491970077364</v>
+        <v>0.0005697336123087629</v>
       </c>
     </row>
     <row r="13">
@@ -892,34 +892,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.017447748722982</v>
+        <v>1.155306812882253</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7251523385426324</v>
+        <v>0.723346997271852</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>2.695481407434549e-08</v>
+        <v>1.183381639755255e-11</v>
       </c>
       <c r="F13" t="n">
-        <v>7.71364259278906e-10</v>
+        <v>2.247696714184527e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H13" t="n">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="I13" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1995979970342901</v>
+        <v>0.2263582943202339</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0005345077338899775</v>
+        <v>0.0007383703810400059</v>
       </c>
     </row>
     <row r="14">
@@ -929,34 +929,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.454947748722982</v>
+        <v>1.342806812882253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7473745607648546</v>
+        <v>0.7344581083829631</v>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>10.5716659791531</v>
+        <v>1.537281917093937e-10</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09425139580206156</v>
+        <v>1.039396134461574e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.62</v>
+        <v>0.53</v>
       </c>
       <c r="I14" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2537106779883644</v>
+        <v>0.278608099994453</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0009218869249661013</v>
+        <v>0.001907433356419059</v>
       </c>
     </row>
     <row r="15">
@@ -966,34 +966,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.204947748722982</v>
+        <v>1.092806812882253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7140412274315213</v>
+        <v>0.7011247750496298</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>3.635528198314539e-11</v>
+        <v>2.623351447065531e-12</v>
       </c>
       <c r="F15" t="n">
-        <v>2.620017913083327e-12</v>
+        <v>1.115452230483196e-13</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
       <c r="I15" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2283414520034308</v>
+        <v>0.1991864610192695</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0004646719313489726</v>
+        <v>0.0002667237146575969</v>
       </c>
     </row>
     <row r="16">
@@ -1003,404 +1003,404 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.329947748722982</v>
+        <v>1.467806812882253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.730707894098188</v>
+        <v>0.7177914417162964</v>
       </c>
       <c r="D16" t="n">
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>6.468771149896032e-10</v>
+        <v>1.857074805208068e-09</v>
       </c>
       <c r="F16" t="n">
-        <v>4.041867229531385e-11</v>
+        <v>1.470372485547273e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>1.02</v>
+        <v>0.4</v>
       </c>
       <c r="I16" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2699652235039421</v>
+        <v>0.2840891296305844</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001387377045876158</v>
+        <v>0.001061646554506638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.423697748722982</v>
+        <v>1.217806812882253</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7399671533574472</v>
+        <v>0.7455692194940743</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>1.445967164056369</v>
+        <v>7.664138145316614e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05337616280756428</v>
+        <v>2.155975033080063e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="I17" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3246603515685225</v>
+        <v>0.2676026593886802</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002294537474158561</v>
+        <v>0.002637173506234215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.173697748722982</v>
+        <v>1.295931812882253</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7066338200241139</v>
+        <v>0.7122358861607408</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>7.284448798886965e-09</v>
+        <v>4.010451411613917e-08</v>
       </c>
       <c r="F18" t="n">
-        <v>1.643897596476325e-09</v>
+        <v>4.555455065490341e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I18" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2172627561144436</v>
+        <v>0.2448488695939062</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003308485027271177</v>
+        <v>0.0005856135524251</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.298697748722982</v>
+        <v>1.045931812882253</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7233004866907806</v>
+        <v>0.7289025528274076</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>4.665685964605268e-09</v>
+        <v>4.711601252300616e-11</v>
       </c>
       <c r="F19" t="n">
-        <v>1.472422188015115e-09</v>
+        <v>2.602112681654556e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="I19" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2550624086867093</v>
+        <v>0.2089029605176333</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0008750704545250551</v>
+        <v>0.000776756383935112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.048697748722982</v>
+        <v>1.420931812882253</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7455227089130029</v>
+        <v>0.7418655157903705</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2446811732300686</v>
+        <v>2.471976891073984e-11</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005328581272734981</v>
+        <v>6.586675874527052e-15</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="I20" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2281701026461702</v>
+        <v>0.309635702995938</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001610907970589181</v>
+        <v>0.003276157939269008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.486197748722982</v>
+        <v>1.170931812882253</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7121893755796694</v>
+        <v>0.7085321824570372</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>6.178251427843867e-08</v>
+        <v>3.374739214002177e-10</v>
       </c>
       <c r="F21" t="n">
-        <v>2.00709133705228e-09</v>
+        <v>2.218984557461806e-13</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="I21" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2817387261032375</v>
+        <v>0.2182093392567902</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0007395936739128701</v>
+        <v>0.000401411379417801</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.236197748722982</v>
+        <v>1.358431812882253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7288560422463362</v>
+        <v>0.7251988491237038</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>1.903646205841335e-08</v>
+        <v>3.963856185391445e-08</v>
       </c>
       <c r="F22" t="n">
-        <v>3.014760535620308e-09</v>
+        <v>2.394287124284228e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H22" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2478807114910644</v>
+        <v>0.2699216201569641</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001027395501226189</v>
+        <v>0.001223904823846616</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.361197748722982</v>
+        <v>1.108431812882253</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7344115978018917</v>
+        <v>0.736309960234815</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>2.044052391830663e-08</v>
+        <v>1.393697105435139e-07</v>
       </c>
       <c r="F23" t="n">
-        <v>5.528457997094164e-10</v>
+        <v>3.50580091187846e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="I23" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2818136093196258</v>
+        <v>0.2294696219156548</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001811099544899604</v>
+        <v>0.001285808158036318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.111197748722982</v>
+        <v>1.483431812882253</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7010782644685584</v>
+        <v>0.7029766269014817</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>4.207723917006047e-09</v>
+        <v>3.40946941402935e-09</v>
       </c>
       <c r="F24" t="n">
-        <v>1.408013570280354e-09</v>
+        <v>9.705538574235135e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="I24" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2023403167924601</v>
+        <v>0.2731801239848731</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002519693691841124</v>
+        <v>0.0005660483766141387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.392447748722982</v>
+        <v>1.233431812882253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7177449311352251</v>
+        <v>0.7196432935681483</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>6.832953352760139e-08</v>
+        <v>5.959984813448654e-12</v>
       </c>
       <c r="F25" t="n">
-        <v>1.840946838059812e-09</v>
+        <v>2.761669852144213e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="I25" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2685295660449258</v>
+        <v>0.2388070402379102</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0008025551585631226</v>
+        <v>0.0007246144900037096</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>train_hrom</t>
+          <t>train_rom</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.142447748722982</v>
+        <v>1.264681812882253</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7418190052092991</v>
+        <v>0.7474210713459261</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>4.888597927955507e-07</v>
+        <v>6.368534398507382e-12</v>
       </c>
       <c r="F26" t="n">
-        <v>2.366471166221654e-08</v>
+        <v>2.183959338723259e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>0.64</v>
+        <v>0.47</v>
       </c>
       <c r="I26" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2430005889514872</v>
+        <v>0.2824614059640078</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001692091383910973</v>
+        <v>0.003188239574070851</v>
       </c>
     </row>
     <row r="27">
@@ -1410,34 +1410,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.267447748722982</v>
+        <v>1.311556812882253</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7084856718759658</v>
+        <v>0.7437173676422224</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>5.625709790714796e-09</v>
+        <v>4.605669914001604e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>1.726437477115225e-09</v>
+        <v>6.215381833474699e-10</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I27" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2362711850142462</v>
+        <v>0.2867737767094249</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0004144492040113077</v>
+        <v>0.002896901846546542</v>
       </c>
     </row>
     <row r="28">
@@ -1447,34 +1447,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.017447748722982</v>
+        <v>1.061556812882253</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7251523385426324</v>
+        <v>0.7103840343088891</v>
       </c>
       <c r="D28" t="n">
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>5.581401290215334e-08</v>
+        <v>1.182538432500708e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>1.799311284885767e-09</v>
+        <v>7.105575135294807e-10</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H28" t="n">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="I28" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1995979967095169</v>
+        <v>0.1986722503366415</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0005345077435356385</v>
+        <v>0.0003549198699449255</v>
       </c>
     </row>
     <row r="29">
@@ -1484,34 +1484,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.454947748722982</v>
+        <v>1.436556812882253</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7473745607648546</v>
+        <v>0.7270507009755557</v>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>10.5820859108441</v>
+        <v>7.510699540804104e-11</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09476183911780357</v>
+        <v>6.132776822032571e-11</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H29" t="n">
-        <v>1.63</v>
+        <v>0.46</v>
       </c>
       <c r="I29" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2533761140892368</v>
+        <v>0.2887644227475732</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.000918463291575855</v>
+        <v>0.001580825492821153</v>
       </c>
     </row>
     <row r="30">
@@ -1521,34 +1521,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.204947748722982</v>
+        <v>1.186556812882253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7140412274315213</v>
+        <v>0.7381618120866669</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>5.703531546571074e-09</v>
+        <v>3.064004648792297e-10</v>
       </c>
       <c r="F30" t="n">
-        <v>1.821058822026341e-09</v>
+        <v>3.443595698246125e-10</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="I30" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2283414514102102</v>
+        <v>0.2489546342566591</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0004646719380171976</v>
+        <v>0.001671531319707832</v>
       </c>
     </row>
     <row r="31">
@@ -1558,108 +1558,4474 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.329947748722982</v>
+        <v>1.374056812882253</v>
       </c>
       <c r="C31" t="n">
-        <v>0.730707894098188</v>
+        <v>0.7048284787533334</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>5.030534802869439e-09</v>
+        <v>4.233897882503704e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>1.59098476733251e-09</v>
+        <v>1.159629471516598e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H31" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="I31" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2699652229108954</v>
+        <v>0.253983793111854</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001387377047611418</v>
+        <v>0.0004984693788601157</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>test_rom</t>
+          <t>train_hrom</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.439248367641834</v>
+        <v>1.124056812882253</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7222272034124581</v>
+        <v>0.7214951454200002</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>15.43224230773593</v>
+        <v>4.372998187040636e-11</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7410488251358417</v>
+        <v>2.874612718074515e-09</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H32" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="I32" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009913947283853738</v>
+        <v>0.2185549514594778</v>
       </c>
       <c r="K32" t="n">
-        <v>0.004766217876607128</v>
+        <v>0.0006378377278158857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.499056812882253</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7492729231977779</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.158798594852748e-08</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.31661963087291e-11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3478734892328899</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.005497165775480508</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.249056812882253</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7159395898644446</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.24212675157841e-10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.812427377767487e-10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2387323421894389</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0006300842795973378</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.280306812882253</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7326062565311112</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.678585279008452e-12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.025011163308027e-10</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2623024865025798</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001519719569357317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.030306812882253</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7400136639385186</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.264118449059304e-11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.744256223385391e-09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2166337414284029</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.001328397523035567</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.405306812882253</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7066803306051853</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.463809414221428e-08</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.156413193779599e-09</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2613677823372718</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0005697336166740619</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.155306812882253</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.723346997271852</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.796406824639106e-11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.577320736128709e-09</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.2263582951246076</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0007383703885002848</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.342806812882253</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7344581083829631</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.918804630621291e-10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.3829793940978e-10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.278608099836871</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.001907433354577974</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.092806812882253</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7011247750496298</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.155637770129353e-10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.68072458354487e-11</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.1991864610147586</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0002667237148943663</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.467806812882253</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7177914417162964</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.786070173607877e-09</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.607529638244443e-11</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2840891296392876</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.00106164655480157</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.217806812882253</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7455692194940743</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.268344842075456e-07</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.705484194541725e-10</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2676026595209677</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.002637173509750417</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.295931812882253</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7122358861607408</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.043582796073035e-07</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.006554959424074e-09</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2448488692675745</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0005856135492964872</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.045931812882253</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7289025528274076</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.045449047289943e-10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.987016868082064e-09</v>
+      </c>
+      <c r="G44" t="n">
+        <v>25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.2089029614147499</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0007767563944955803</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.420931812882253</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7418655157903705</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.033561662872244e-10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.58629574295049e-10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3096357030970757</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.003276157941944484</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.170931812882253</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7085321824570372</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.838321018949174e-09</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.161914882417771e-09</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.218209339607251</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0004014113831610601</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.358431812882253</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7251988491237038</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.11950003963831e-07</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.954734993303987e-10</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.2699216200190525</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.00122390482249218</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.108431812882253</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.736309960234815</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.913793876619732e-11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.752137806177573e-09</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.2294696203976314</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.001285808139602994</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.483431812882253</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7029766269014817</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.610423099038363e-09</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.46678830103012e-11</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.273180124002194</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0005660483772369348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.233431812882253</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7196432935681483</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.24389713464517e-10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.676602684248355e-10</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2388070403879488</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0007246144920709397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>train_hrom</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.264681812882253</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.7474210713459261</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.171652116755917e-11</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.588057167799013e-11</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.28246140592825</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.003188239573610584</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.052983559316302</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.7048983872368323</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.446462117572513e-12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.001201176086214774</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1935598627303318</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0002825327647300352</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.427983559316302</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.721565053903499</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.252722628634244e-08</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8.10056498040915e-05</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.2801984861065726</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001180618995531761</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.177983559316302</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7407008563726348</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.697146784871903e-10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0001278354462217553</v>
+      </c>
+      <c r="G54" t="n">
+        <v>25</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.250490399762373</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.001881762725394098</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.365483559316302</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7073675230393014</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.890130340232591e-09</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.308767447353466e-05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.2543268848813328</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0005441980264784627</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.115483559316302</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7240341897059681</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.256849668643848e-12</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.886258218210623e-05</v>
+      </c>
+      <c r="G56" t="n">
+        <v>25</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2188995573845549</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0007053439403284585</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.490483559316302</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.7462564119281904</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.528090743087739e-07</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.004445832296613827</v>
+      </c>
+      <c r="G57" t="n">
+        <v>25</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3353414391323132</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.004548589587221133</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.240483559316302</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.712923078594857</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.978510982290772e-08</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.529559504168047e-05</v>
+      </c>
+      <c r="G58" t="n">
+        <v>25</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.2346679332556211</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0005461966726876951</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.263921059316302</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7295897452615236</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.809725098679407e-08</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.123401390064496e-05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2550908004114646</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001258901628670519</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.013921059316302</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.7351453008170792</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.997082468286666e-09</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.002377502205212441</v>
+      </c>
+      <c r="G60" t="n">
+        <v>25</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2072202949351248</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.000967911478646982</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.388921059316302</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.7018119674837459</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.765682646883024e-10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9.080006770072198e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2544902307030026</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0004556633440005878</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.138921059316302</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.7184786341504126</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.292916785561852e-07</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.643918991519648e-05</v>
+      </c>
+      <c r="G62" t="n">
+        <v>25</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2191174174390792</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0005715734145872635</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.326421059316302</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.7425527082244866</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.696002469629382e-13</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0002438499852416531</v>
+      </c>
+      <c r="G63" t="n">
+        <v>25</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2880596389223483</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.002804707294695797</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.076421059316302</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7092193748911533</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.153327358298854e-10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0007284321473136684</v>
+      </c>
+      <c r="G64" t="n">
+        <v>25</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.2009809464051822</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0003493107712804625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.451421059316302</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.72588604155782</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6.52482579201489e-12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6.429518740895193e-05</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2903857161214749</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001537655829652057</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.201421059316302</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.7481082637800422</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.158604660339098e-12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0002664416536913519</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2683234405230101</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.00291221078913274</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.295171059316302</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7147749304467088</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.746364896100304e-13</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.346064390415582e-05</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.2467993749542678</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.000652063633358322</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.045171059316302</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.7314415971133755</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.117949057844419e-10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.076643419403779e-05</v>
+      </c>
+      <c r="G68" t="n">
+        <v>25</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2110225259930921</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0008772494997257149</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.420171059316302</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7369971526689311</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.361100632165731e-08</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0008748934948949446</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2998841511735454</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.002537659038423977</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.170171059316302</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7036638193355977</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.63387922588551e-08</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0005453981707811143</v>
+      </c>
+      <c r="G70" t="n">
+        <v>25</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.214805011770472</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0003327852998929416</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.357671059316302</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7203304860022643</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.641352354187943e-10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.457107436118791e-05</v>
+      </c>
+      <c r="G71" t="n">
+        <v>25</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.2644462000376167</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.000957557571498931</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.107671059316302</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7444045600763385</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.205638820279899e-10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0004411068542864109</v>
+      </c>
+      <c r="G72" t="n">
+        <v>25</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.2396052558165046</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.001969266276059499</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.482671059316302</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.7110712267430052</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.723849206728817e-12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0001854473316149634</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.280130332129482</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0007981386635168364</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.232671059316302</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.7277378934096719</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7.08837865109947e-09</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.592473887282361e-05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.2464718984696489</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.001076027418460301</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.279546059316302</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.749960115631894</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.220031953036135e-10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.002441063061832218</v>
+      </c>
+      <c r="G75" t="n">
+        <v>25</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.290700926567088</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.00369498745848247</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.029546059316302</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.7166267822985607</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.394681447972585e-09</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.001557145338564475</v>
+      </c>
+      <c r="G76" t="n">
+        <v>25</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1960173830459978</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0004252750977595463</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1.404546059316302</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.7332934489652274</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.686869083487864e-10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0001239866052957762</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2906200868302108</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.002038773869658954</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.154546059316302</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.7388490045207829</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.130342909040131e-12</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0002313912376955839</v>
+      </c>
+      <c r="G78" t="n">
+        <v>25</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.2428028051502829</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.001627867358079873</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.342046059316302</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.7055156711874496</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.150363768627236e-09</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.056808832759384e-06</v>
+      </c>
+      <c r="G79" t="n">
+        <v>25</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.2484535955323542</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0004829231475290685</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.092046059316302</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.7221823378541162</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.482726210726818e-12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.002688926260250274</v>
+      </c>
+      <c r="G80" t="n">
+        <v>25</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.2135159287846946</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0006354840823579407</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.467046059316302</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.7394662884714003</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.141623094223008e-10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0004023154575709511</v>
+      </c>
+      <c r="G81" t="n">
+        <v>25</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3157637928845452</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.00316768612451318</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.217046059316302</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.7061329551380668</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.144269264054325e-10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0001109254226503511</v>
+      </c>
+      <c r="G82" t="n">
+        <v>25</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2252814212754206</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0003920629773778482</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1.310796059316302</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.7227996218047336</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.003484832334765e-09</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8.419300964374975e-05</v>
+      </c>
+      <c r="G83" t="n">
+        <v>25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.257472135506061</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0009866173631859132</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.060796059316302</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.7450218440269558</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.092153967813688e-10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.003262548483094712</v>
+      </c>
+      <c r="G84" t="n">
+        <v>25</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.23085192149503</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.00188853797652436</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.435796059316302</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7116885106936224</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.619488938120989e-13</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0001519443169347209</v>
+      </c>
+      <c r="G85" t="n">
+        <v>25</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.271550306454645</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0007465568697907878</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.185796059316302</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7283551773602891</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.566033458521031e-09</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.000105048281420074</v>
+      </c>
+      <c r="G86" t="n">
+        <v>25</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.2373067308151082</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.001000606184548723</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.373296059316302</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7339107329158446</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.038509671434349e-10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7.836533280278757e-05</v>
+      </c>
+      <c r="G87" t="n">
+        <v>25</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.2845871640335347</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.00197422579913569</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1.123296059316302</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7005773995825113</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.897384090476452e-12</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.001444713570806557</v>
+      </c>
+      <c r="G88" t="n">
+        <v>25</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.2040794851197912</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0002800815573478785</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.498296059316302</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.717244066249178</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6.712026348848108e-09</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3.436322613500589e-05</v>
+      </c>
+      <c r="G89" t="n">
+        <v>25</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.2896600043225434</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001101930470902008</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.248296059316302</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7413181403232521</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5.49245249900541e-09</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0008598720241047717</v>
+      </c>
+      <c r="G90" t="n">
+        <v>25</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.2673191028146549</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.002238711739949408</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1.252202309316302</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7079848069899187</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9.830568042212593e-10</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.855974174660258e-05</v>
+      </c>
+      <c r="G91" t="n">
+        <v>25</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.2332328957267212</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0004541796391262579</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.002202309316302</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7246514736565854</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.045802352704314e-12</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.003424204665202085</v>
+      </c>
+      <c r="G92" t="n">
+        <v>25</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.195668229619656</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0005581550183189161</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.377202309316302</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7468736958788076</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.176904314846495e-09</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.002044081876380673</v>
+      </c>
+      <c r="G93" t="n">
+        <v>25</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.3087060805193148</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.003827151024428404</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.127202309316302</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7135403625454743</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.483611976341544e-09</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.758523841476089e-05</v>
+      </c>
+      <c r="G94" t="n">
+        <v>25</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.2132517528770706</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0004565012537702416</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.314702309316302</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.730207029212141</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9.897329890969715e-13</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.386672357113308e-05</v>
+      </c>
+      <c r="G95" t="n">
+        <v>25</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.2666989724525748</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001441564192128767</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1.064702309316302</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7357625847676965</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.368862839076228e-08</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.002130982326647123</v>
+      </c>
+      <c r="G96" t="n">
+        <v>25</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.2200830987409481</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.001160012388547895</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.439702309316302</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7024292514343632</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.044230837194662e-09</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.642195283057493e-05</v>
+      </c>
+      <c r="G97" t="n">
+        <v>25</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.2644939469632062</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.0005118377458419891</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1.189702309316302</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7190959181010298</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.068858283692172e-12</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.218592783548206e-05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>25</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.2296080053555632</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0006426648638001983</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.283452309316302</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.7431699921751039</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8.46456642176981e-08</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0003190311653289436</v>
+      </c>
+      <c r="G99" t="n">
+        <v>25</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.278903635212027</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.002654980897458709</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1.033452309316302</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7098366588417706</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.683003975488896e-11</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.00156022831088661</v>
+      </c>
+      <c r="G100" t="n">
+        <v>25</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.1925927343519641</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0003252361886176068</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>test_rom</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.408452309316302</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.7265033255084372</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.799372291759898e-12</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.192282801045882e-05</v>
+      </c>
+      <c r="G101" t="n">
+        <v>25</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.2820385231753593</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.001450101784566948</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>test_hrom</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>1.439248367641834</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.7222272034124581</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.90205282448405</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7586782048875222</v>
-      </c>
-      <c r="G33" t="n">
-        <v>15</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6417</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.003274394519605487</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.006120870416963178</v>
+      <c r="B102" t="n">
+        <v>1.052983559316302</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.7048983872368323</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.606618719719843e-10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.003639940535557436</v>
+      </c>
+      <c r="G102" t="n">
+        <v>25</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.1928710268782426</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0002766011541655024</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1.427983559316302</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.721565053903499</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.168094170790738e-08</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0002943624401096849</v>
+      </c>
+      <c r="G103" t="n">
+        <v>25</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.2802753373781424</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.001180606134883243</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1.177983559316302</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7407008563726348</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.34431225247618e-10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0003199423608072183</v>
+      </c>
+      <c r="G104" t="n">
+        <v>25</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.2504252337146414</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.001882495389421711</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1.365483559316302</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.7073675230393014</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.455763904050799e-08</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5.79909783118317e-05</v>
+      </c>
+      <c r="G105" t="n">
+        <v>25</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.254341824292942</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.000544332212161474</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1.115483559316302</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.7240341897059681</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.521600488710362e-11</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0001765979351504125</v>
+      </c>
+      <c r="G106" t="n">
+        <v>25</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.218859895244835</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0007043411252947601</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1.490483559316302</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7462564119281904</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.909875458080834e-10</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.009196444698381562</v>
+      </c>
+      <c r="G107" t="n">
+        <v>25</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.333333834875668</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.004510959985531033</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1.240483559316302</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.712923078594857</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.184754627588173e-08</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0001773127883391893</v>
+      </c>
+      <c r="G108" t="n">
+        <v>25</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.2347076086529936</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0005463642148103385</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.263921059316302</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.7295897452615236</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.356469857999469e-07</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.322264888789239e-05</v>
+      </c>
+      <c r="G109" t="n">
+        <v>25</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I109" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.255096868202823</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.00125909076170549</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.013921059316302</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.7351453008170792</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.585260240821558e-08</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.009045454271872621</v>
+      </c>
+      <c r="G110" t="n">
+        <v>25</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.2051898092855586</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0009358366941276041</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1.388921059316302</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.7018119674837459</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.590510930379853e-10</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0002633768173657124</v>
+      </c>
+      <c r="G111" t="n">
+        <v>25</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.2544310076692151</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0004557887629267933</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.138921059316302</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7184786341504126</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.050089074474415e-10</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.815935405483965e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>25</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.2191068716214334</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.0005710142886997884</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.326421059316302</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.7425527082244866</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.227254626075035e-10</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0006392797777237152</v>
+      </c>
+      <c r="G113" t="n">
+        <v>25</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.2879118515381873</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.002804709124843975</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1.076421059316302</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.7092193748911533</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.997283208552793e-10</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.002392970726537231</v>
+      </c>
+      <c r="G114" t="n">
+        <v>25</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2014617907959505</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0003547208742559604</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1.451421059316302</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.72588604155782</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.430850582258025e-10</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.00014860743475744</v>
+      </c>
+      <c r="G115" t="n">
+        <v>25</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.2903546222229968</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.001537485824258509</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.201421059316302</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7481082637800422</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.280542968152748e-10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0005155170668507698</v>
+      </c>
+      <c r="G116" t="n">
+        <v>25</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.2684133626777778</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.002913734129371457</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1.295171059316302</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.7147749304467088</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.424223190582146e-11</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6.061082565464861e-05</v>
+      </c>
+      <c r="G117" t="n">
+        <v>25</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.246783730298297</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.0006522226330321883</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.045171059316302</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.7314415971133755</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.543334104314465e-09</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0001068251908863884</v>
+      </c>
+      <c r="G118" t="n">
+        <v>25</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.2109923987953902</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.000877877703348736</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1.420171059316302</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.7369971526689311</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.264821014195183e-07</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.002423094608798635</v>
+      </c>
+      <c r="G119" t="n">
+        <v>25</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.2992948216076053</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.002531285729507139</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1.170171059316302</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.7036638193355977</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.298074139035544e-11</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.001494019592828718</v>
+      </c>
+      <c r="G120" t="n">
+        <v>25</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.2145228307859072</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.0003306668874760894</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1.357671059316302</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.7203304860022643</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.784093191371781e-09</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7.458845397658907e-05</v>
+      </c>
+      <c r="G121" t="n">
+        <v>25</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2644612858110978</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.0009574321751981965</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1.107671059316302</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.7444045600763385</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.684164439942252e-09</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.00100399733973779</v>
+      </c>
+      <c r="G122" t="n">
+        <v>25</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.2394168696473872</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.001968574818673821</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1.482671059316302</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.7110712267430052</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.232003103884666e-11</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0005673972476214435</v>
+      </c>
+      <c r="G123" t="n">
+        <v>25</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.2799946419071189</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.0007973134779715972</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.232671059316302</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.7277378934096719</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.165488892581484e-08</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0001016933939701631</v>
+      </c>
+      <c r="G124" t="n">
+        <v>25</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.2465001606116158</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.001076495556927949</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1.279546059316302</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.749960115631894</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.445495423243591e-10</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.004905689679987248</v>
+      </c>
+      <c r="G125" t="n">
+        <v>25</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.2897552731679119</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.00368101729488594</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.029546059316302</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.7166267822985607</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.667950679136013e-08</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.005292397391171572</v>
+      </c>
+      <c r="G126" t="n">
+        <v>25</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I126" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.1949409549523653</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.0004113807224890983</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1.404546059316302</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.7332934489652274</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.886765131719511e-10</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0003124882360367951</v>
+      </c>
+      <c r="G127" t="n">
+        <v>25</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.2905499796605995</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.002038365410856072</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1.154546059316302</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.7388490045207829</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.144029209146184e-10</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.000654380056308236</v>
+      </c>
+      <c r="G128" t="n">
+        <v>25</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.2429450571116165</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.001629454201933223</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1.342046059316302</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.7055156711874496</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.19317225306832e-09</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.957460180869899e-06</v>
+      </c>
+      <c r="G129" t="n">
+        <v>25</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I129" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.2484533214316224</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.000482776599593367</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1.092046059316302</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.7221823378541162</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.390646337109002e-10</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.009476047563116114</v>
+      </c>
+      <c r="G130" t="n">
+        <v>25</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.2155708723770865</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.0006625859907663035</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1.467046059316302</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.7394662884714003</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.844245278326507e-10</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0009459891356421858</v>
+      </c>
+      <c r="G131" t="n">
+        <v>25</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.3155479126739963</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.003166833898388388</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.217046059316302</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.7061329551380668</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.54624597254829e-10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0003421883992254621</v>
+      </c>
+      <c r="G132" t="n">
+        <v>25</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.2252093209557214</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.0003914075874667531</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1.310796059316302</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.7227996218047336</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.752648305529472e-09</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0002978104182652974</v>
+      </c>
+      <c r="G133" t="n">
+        <v>25</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.2575448917882046</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.0009869840216963311</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1.060796059316302</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.7450218440269558</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.559264667726839e-09</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.01308103252600257</v>
+      </c>
+      <c r="G134" t="n">
+        <v>25</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.2340639565845017</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.001957110804201234</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1.435796059316302</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.7116885106936224</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.261158193052066e-11</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.00046660459273792</v>
+      </c>
+      <c r="G135" t="n">
+        <v>25</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.2714397719717772</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0007456919981600005</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.185796059316302</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.7283551773602891</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.804514471575305e-09</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0002556881377365809</v>
+      </c>
+      <c r="G136" t="n">
+        <v>25</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.2372571139151895</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.001001103981417019</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1.373296059316302</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.7339107329158446</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.492470318444056e-10</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0001883137413723585</v>
+      </c>
+      <c r="G137" t="n">
+        <v>25</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I137" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.2845471992016245</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.001974411954158932</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1.123296059316302</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.7005773995825113</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.137566951691268e-10</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.003969605462403195</v>
+      </c>
+      <c r="G138" t="n">
+        <v>25</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.2033501348986263</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0002707874857095951</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1.498296059316302</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.717244066249178</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.275660059831745e-08</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5.253851407489291e-05</v>
+      </c>
+      <c r="G139" t="n">
+        <v>25</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.2896526363946574</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.001101590267215288</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1.248296059316302</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.7413181403232521</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.470362266796919e-08</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.002081117960568811</v>
+      </c>
+      <c r="G140" t="n">
+        <v>25</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.266884946283308</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.002233424658370702</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1.252202309316302</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.7079848069899187</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.030748823621799e-09</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.185071605026617e-05</v>
+      </c>
+      <c r="G141" t="n">
+        <v>25</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.233241659464532</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.0004537701695712885</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1.002202309316302</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.7246514736565854</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.016933743810164e-10</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.01203657265181396</v>
+      </c>
+      <c r="G142" t="n">
+        <v>25</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.1931583366324047</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.0005227875356839558</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1.377202309316302</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.7468736958788076</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.017191857379899e-09</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.004412108563688965</v>
+      </c>
+      <c r="G143" t="n">
+        <v>25</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.307765902183713</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.003814760571059169</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1.127202309316302</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.7135403625454743</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.631906985301317e-08</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.348653185346172e-05</v>
+      </c>
+      <c r="G144" t="n">
+        <v>25</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.2132679037062074</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.0004557554311132479</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1.314702309316302</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.730207029212141</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.248023819149976e-12</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4.571148600362381e-05</v>
+      </c>
+      <c r="G145" t="n">
+        <v>25</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.2667028943664765</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.001441338770162825</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1.064702309316302</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.7357625847676965</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.035020240595744e-11</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.008089159849122715</v>
+      </c>
+      <c r="G146" t="n">
+        <v>25</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I146" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.2219531707223971</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.001191982410997694</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1.439702309316302</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.7024292514343632</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.96080850116167e-09</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9.089977715648272e-05</v>
+      </c>
+      <c r="G147" t="n">
+        <v>25</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.264474977659067</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.0005118251498658468</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1.189702309316302</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.7190959181010298</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.532322656504451e-10</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0003007460738436107</v>
+      </c>
+      <c r="G148" t="n">
+        <v>25</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I148" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.2295376833353428</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.0006426590721987802</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1.283452309316302</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.7431699921751039</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.848817131743388e-11</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0008231418173239193</v>
+      </c>
+      <c r="G149" t="n">
+        <v>25</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.2787192792802427</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.002654069301745965</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1.033452309316302</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.7098366588417706</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.585465207089459e-10</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.004978449042418482</v>
+      </c>
+      <c r="G150" t="n">
+        <v>25</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I150" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.1916239109730795</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.0003149399159396017</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>test_hrom</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1.408452309316302</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.7265033255084372</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.838407567133991e-11</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3.592436204347981e-05</v>
+      </c>
+      <c r="G151" t="n">
+        <v>25</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.2820216202496404</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.001449684905637835</v>
       </c>
     </row>
   </sheetData>
